--- a/sql/db.xlsx
+++ b/sql/db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saint\food\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4BF26BF0-39FD-4F1F-BBE4-7B6C01C7F6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9464BD80-B0DD-4896-9C40-21263C88C281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E8540DA3-6F26-43F7-ACE1-E154C96610AC}"/>
   </bookViews>
@@ -1306,11 +1306,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BDE2E81-C12E-4C0C-B6AC-52879AB62DA5}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:M96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1371,7 +1372,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1412,7 +1413,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1453,7 +1454,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1494,7 +1495,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1535,7 +1536,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1576,7 +1577,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1617,7 +1618,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1658,7 +1659,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1699,7 +1700,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1740,7 +1741,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1781,7 +1782,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1822,7 +1823,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1863,7 +1864,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2970,7 +2971,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>13</v>
       </c>
@@ -3011,7 +3012,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -3052,7 +3053,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>13</v>
       </c>
@@ -3093,7 +3094,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -3134,7 +3135,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -3175,7 +3176,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -3216,7 +3217,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -3257,7 +3258,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>13</v>
       </c>
@@ -3298,7 +3299,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -3339,7 +3340,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -3380,7 +3381,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>13</v>
       </c>
@@ -3421,7 +3422,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>13</v>
       </c>
@@ -3462,7 +3463,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>13</v>
       </c>
@@ -3503,7 +3504,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>13</v>
       </c>
@@ -3544,7 +3545,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>13</v>
       </c>
@@ -3585,7 +3586,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>13</v>
       </c>
@@ -3626,7 +3627,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>13</v>
       </c>
@@ -3667,7 +3668,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>13</v>
       </c>
@@ -3708,7 +3709,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>13</v>
       </c>
@@ -3749,7 +3750,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -3790,7 +3791,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>13</v>
       </c>
@@ -3831,7 +3832,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>13</v>
       </c>
@@ -3872,7 +3873,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>13</v>
       </c>
@@ -3913,7 +3914,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>13</v>
       </c>
@@ -3954,7 +3955,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>13</v>
       </c>
@@ -3995,7 +3996,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>13</v>
       </c>
@@ -4036,7 +4037,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>13</v>
       </c>
@@ -4077,7 +4078,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>13</v>
       </c>
@@ -4118,7 +4119,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>13</v>
       </c>
@@ -4159,7 +4160,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>13</v>
       </c>
@@ -4200,7 +4201,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>13</v>
       </c>
@@ -4241,7 +4242,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>13</v>
       </c>
@@ -4282,7 +4283,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>13</v>
       </c>
@@ -4323,7 +4324,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>13</v>
       </c>
@@ -4364,7 +4365,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>13</v>
       </c>
@@ -4405,7 +4406,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>13</v>
       </c>
@@ -4446,7 +4447,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>13</v>
       </c>
@@ -4487,7 +4488,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>13</v>
       </c>
@@ -4528,7 +4529,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>13</v>
       </c>
@@ -4569,7 +4570,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>13</v>
       </c>
@@ -4610,7 +4611,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>13</v>
       </c>
@@ -4651,7 +4652,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>13</v>
       </c>
@@ -4692,7 +4693,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>13</v>
       </c>
@@ -4733,7 +4734,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>13</v>
       </c>
@@ -4774,7 +4775,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>13</v>
       </c>
@@ -4815,7 +4816,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>13</v>
       </c>
@@ -4856,7 +4857,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>13</v>
       </c>
@@ -4897,7 +4898,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>13</v>
       </c>
@@ -4938,7 +4939,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>13</v>
       </c>
@@ -4979,7 +4980,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>13</v>
       </c>
@@ -5020,7 +5021,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>13</v>
       </c>
@@ -5061,7 +5062,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>13</v>
       </c>
@@ -5102,7 +5103,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>13</v>
       </c>
@@ -5143,7 +5144,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>13</v>
       </c>
@@ -5184,7 +5185,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>13</v>
       </c>
@@ -5225,7 +5226,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>13</v>
       </c>
@@ -5267,7 +5268,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M96" xr:uid="{7BDE2E81-C12E-4C0C-B6AC-52879AB62DA5}"/>
+  <autoFilter ref="A1:M96" xr:uid="{7BDE2E81-C12E-4C0C-B6AC-52879AB62DA5}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="menu_category"/>
+        <filter val="menu_item"/>
+        <filter val="menu_option"/>
+        <filter val="menu_option_group"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
